--- a/Manuscript/Table 2.xlsx
+++ b/Manuscript/Table 2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6700" yWindow="640" windowWidth="21580" windowHeight="13860" tabRatio="500"/>
+    <workbookView xWindow="6380" yWindow="80" windowWidth="24420" windowHeight="14720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="107">
   <si>
     <t>N</t>
   </si>
@@ -334,6 +334,12 @@
   </si>
   <si>
     <t>salinosporamice</t>
+  </si>
+  <si>
+    <t>CP025542</t>
+  </si>
+  <si>
+    <t>Phylogeny step (synonyms)</t>
   </si>
 </sst>
 </file>
@@ -517,8 +523,54 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -619,7 +671,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="81">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -637,6 +689,29 @@
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -654,6 +729,29 @@
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -983,10 +1081,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -996,16 +1094,17 @@
     <col min="3" max="4" width="8.83203125" style="7" customWidth="1"/>
     <col min="5" max="5" width="11.1640625" style="7" customWidth="1"/>
     <col min="6" max="6" width="13.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="16.83203125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="29.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="7"/>
+    <col min="7" max="7" width="13.1640625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="16.83203125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="29.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1">
+    <row r="1" spans="1:12" s="5" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1023,22 +1122,25 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1058,18 +1160,19 @@
         <v>32</v>
       </c>
       <c r="G2" s="17"/>
-      <c r="H2" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="19" t="s">
+      <c r="H2" s="17"/>
+      <c r="I2" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="18"/>
+      <c r="K2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="L2" s="20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1089,20 +1192,21 @@
         <v>46</v>
       </c>
       <c r="G3" s="9"/>
-      <c r="H3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="10">
+      <c r="H3" s="9"/>
+      <c r="I3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="10">
         <v>5648</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="K3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="L3" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1122,20 +1226,21 @@
         <v>13</v>
       </c>
       <c r="G4" s="9"/>
-      <c r="H4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="10">
+      <c r="H4" s="9"/>
+      <c r="I4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="10">
         <v>11966</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="K4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="L4" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1155,20 +1260,21 @@
         <v>53</v>
       </c>
       <c r="G5" s="17"/>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="17"/>
+      <c r="I5" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="J5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="K5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="L5" s="20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1187,21 +1293,24 @@
       <c r="F6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="10">
+      <c r="G6" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="10">
         <v>1112</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="K6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="L6" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1221,20 +1330,21 @@
         <v>50</v>
       </c>
       <c r="G7" s="9"/>
-      <c r="H7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="10">
+      <c r="H7" s="9"/>
+      <c r="I7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="10">
         <v>1772</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="K7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="L7" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="33">
+    <row r="8" spans="1:12" ht="33">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1254,20 +1364,21 @@
         <v>26</v>
       </c>
       <c r="G8" s="8"/>
-      <c r="H8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="10">
+      <c r="H8" s="8"/>
+      <c r="I8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="10">
         <v>374</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="K8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="L8" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1287,20 +1398,21 @@
         <v>29</v>
       </c>
       <c r="G9" s="15"/>
-      <c r="H9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="10">
+      <c r="H9" s="15"/>
+      <c r="I9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="10">
         <v>3935</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="K9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="L9" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1320,20 +1432,21 @@
         <v>38</v>
       </c>
       <c r="G10" s="9"/>
-      <c r="H10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="10">
+      <c r="H10" s="9"/>
+      <c r="I10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="10">
         <v>5855</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="K10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="L10" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1353,20 +1466,21 @@
         <v>40</v>
       </c>
       <c r="G11" s="9"/>
-      <c r="H11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="10">
+      <c r="H11" s="9"/>
+      <c r="I11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="10">
         <v>8439</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="K11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="L11" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1386,20 +1500,21 @@
         <v>42</v>
       </c>
       <c r="G12" s="8"/>
-      <c r="H12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="10">
+      <c r="H12" s="8"/>
+      <c r="I12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="10">
         <v>10562</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="K12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="L12" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1419,20 +1534,21 @@
         <v>48</v>
       </c>
       <c r="G13" s="9"/>
-      <c r="H13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="10">
+      <c r="H13" s="9"/>
+      <c r="I13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="10">
         <v>5945</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="K13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="L13" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -1444,17 +1560,18 @@
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="11" t="s">
+      <c r="H14" s="9"/>
+      <c r="I14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="L14" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:12">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -1467,20 +1584,21 @@
       <c r="F15" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="G15" s="9"/>
       <c r="H15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="I15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="L15" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:12">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -1492,17 +1610,18 @@
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="11" t="s">
+      <c r="H16" s="9"/>
+      <c r="I16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="L16" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:12">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -1515,20 +1634,21 @@
       <c r="F17" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="G17" s="9"/>
       <c r="H17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="I17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="L17" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:12">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -1540,17 +1660,18 @@
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" s="11" t="s">
+      <c r="H18" s="9"/>
+      <c r="I18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="L18" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:12">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -1566,17 +1687,18 @@
         <v>66</v>
       </c>
       <c r="G19" s="9"/>
-      <c r="H19" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" s="11" t="s">
+      <c r="H19" s="9"/>
+      <c r="I19" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K19" s="12" t="s">
+      <c r="L19" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:12">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -1587,20 +1709,21 @@
         <v>67</v>
       </c>
       <c r="F20" s="9"/>
-      <c r="G20" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="G20" s="9"/>
       <c r="H20" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="I20" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K20" s="12" t="s">
+      <c r="L20" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:12">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -1613,20 +1736,21 @@
       <c r="F21" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G21" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="G21" s="9"/>
       <c r="H21" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="I21" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K21" s="12" t="s">
+      <c r="L21" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="23" customFormat="1">
+    <row r="22" spans="1:12" s="23" customFormat="1">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -1640,17 +1764,18 @@
         <v>71</v>
       </c>
       <c r="G22" s="9"/>
-      <c r="H22" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" s="24" t="s">
+      <c r="H22" s="9"/>
+      <c r="I22" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="K22" s="25" t="s">
+      <c r="L22" s="25" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="16" customFormat="1">
+    <row r="23" spans="1:12" s="16" customFormat="1">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -1666,17 +1791,18 @@
       </c>
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
-      <c r="H23" s="22" t="s">
+      <c r="H23" s="22"/>
+      <c r="I23" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="J23" s="19" t="s">
+      <c r="K23" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="K23" s="20" t="s">
+      <c r="L23" s="20" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:12">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -1690,17 +1816,18 @@
         <v>78</v>
       </c>
       <c r="G24" s="9"/>
-      <c r="H24" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" s="11" t="s">
+      <c r="H24" s="9"/>
+      <c r="I24" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="K24" s="26" t="s">
+      <c r="L24" s="26" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="16" customFormat="1">
+    <row r="25" spans="1:12" s="16" customFormat="1">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -1716,17 +1843,18 @@
       </c>
       <c r="F25" s="22"/>
       <c r="G25" s="22"/>
-      <c r="H25" s="22" t="s">
+      <c r="H25" s="22"/>
+      <c r="I25" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="J25" s="19" t="s">
+      <c r="K25" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="K25" s="20" t="s">
+      <c r="L25" s="20" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="16" customFormat="1">
+    <row r="26" spans="1:12" s="16" customFormat="1">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -1744,17 +1872,18 @@
         <v>83</v>
       </c>
       <c r="G26" s="22"/>
-      <c r="H26" s="22" t="s">
+      <c r="H26" s="22"/>
+      <c r="I26" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="J26" s="19" t="s">
+      <c r="K26" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="K26" s="20" t="s">
+      <c r="L26" s="20" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="16" customFormat="1">
+    <row r="27" spans="1:12" s="16" customFormat="1">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -1772,17 +1901,18 @@
         <v>86</v>
       </c>
       <c r="G27" s="22"/>
-      <c r="H27" s="22" t="s">
+      <c r="H27" s="22"/>
+      <c r="I27" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="J27" s="19" t="s">
+      <c r="K27" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="K27" s="20" t="s">
+      <c r="L27" s="20" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="16" customFormat="1">
+    <row r="28" spans="1:12" s="16" customFormat="1">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -1798,17 +1928,18 @@
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
-      <c r="H28" s="22" t="s">
+      <c r="H28" s="22"/>
+      <c r="I28" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="J28" s="19" t="s">
+      <c r="K28" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="K28" s="20" t="s">
+      <c r="L28" s="20" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="16" customFormat="1">
+    <row r="29" spans="1:12" s="16" customFormat="1">
       <c r="A29" s="27">
         <v>28</v>
       </c>
@@ -1824,23 +1955,24 @@
       </c>
       <c r="F29" s="28"/>
       <c r="G29" s="28"/>
-      <c r="H29" s="28" t="s">
+      <c r="H29" s="28"/>
+      <c r="I29" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="I29" s="29"/>
-      <c r="J29" s="30" t="s">
+      <c r="J29" s="29"/>
+      <c r="K29" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="K29" s="31" t="s">
+      <c r="L29" s="31" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:12">
       <c r="C30" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:12">
       <c r="B32" s="7" t="s">
         <v>92</v>
       </c>
